--- a/tests/testthat/_output_excel_snaps/data_to_worksheet_data_table_name.xlsx
+++ b/tests/testthat/_output_excel_snaps/data_to_worksheet_data_table_name.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">test_r_numeric</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">test_r_complex</t>
   </si>
   <si>
+    <t xml:space="preserve">test_xlr_n_percent</t>
+  </si>
+  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -53,7 +56,103 @@
     <t xml:space="preserve">1+1i</t>
   </si>
   <si>
+    <t xml:space="preserve">1 (3%)</t>
+  </si>
+  <si>
     <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 (6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 (9%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 (12%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 (16%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (19%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 (22%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 (25%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 (28%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 (31%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 (34%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 (38%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 (41%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (44%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 (47%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 (50%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 (53%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 (56%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 (59%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 (62%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21 (66%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22 (69%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23 (72%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24 (75%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 (78%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 (81%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 (84%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29 (91%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (94%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31 (97%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32 (100%)</t>
   </si>
 </sst>
 </file>
@@ -103,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -129,6 +228,9 @@
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,9 +240,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="table_test_" displayName="table_test_" ref="A2:J34" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A2:J34"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="table_test_" displayName="table_test_" ref="A2:K34" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A2:K34"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="test_r_numeric"/>
     <tableColumn id="2" name="test_r_integer"/>
     <tableColumn id="3" name="test_xlr_numeric"/>
@@ -151,6 +253,7 @@
     <tableColumn id="8" name="test_xlr_scientific"/>
     <tableColumn id="9" name="test_r_factor"/>
     <tableColumn id="10" name="test_r_complex"/>
+    <tableColumn id="11" name="test_xlr_n_percent"/>
   </tableColumns>
   <tableStyleInfo name="none" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,6 +575,9 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
+      <c r="K2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -493,16 +599,19 @@
         <v>2.62</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="8" t="n">
         <v>16.46</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +634,19 @@
         <v>2.875</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>17.02</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -557,16 +669,19 @@
         <v>2.32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" s="8" t="n">
         <v>18.61</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -589,16 +704,19 @@
         <v>3.215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" s="8" t="n">
         <v>19.44</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -621,16 +739,19 @@
         <v>3.44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" s="8" t="n">
         <v>17.02</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
@@ -653,16 +774,19 @@
         <v>3.46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" s="8" t="n">
         <v>20.22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -685,16 +809,19 @@
         <v>3.57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="8" t="n">
         <v>15.84</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -717,16 +844,19 @@
         <v>3.19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -749,16 +879,19 @@
         <v>3.15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H11" s="8" t="n">
         <v>22.9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -781,16 +914,19 @@
         <v>3.44</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12" s="8" t="n">
         <v>18.3</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -813,16 +949,19 @@
         <v>3.44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H13" s="8" t="n">
         <v>18.9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +984,19 @@
         <v>4.07</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>17.4</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -877,16 +1019,19 @@
         <v>3.73</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H15" s="8" t="n">
         <v>17.6</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16">
@@ -909,16 +1054,19 @@
         <v>3.78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="8" t="n">
         <v>18</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -941,16 +1089,19 @@
         <v>5.25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H17" s="8" t="n">
         <v>17.98</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -973,16 +1124,19 @@
         <v>5.424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18" s="8" t="n">
         <v>17.82</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1005,16 +1159,19 @@
         <v>5.345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H19" s="8" t="n">
         <v>17.42</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -1037,16 +1194,19 @@
         <v>2.2</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H20" s="8" t="n">
         <v>19.47</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -1069,16 +1229,19 @@
         <v>1.615</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" s="8" t="n">
         <v>18.52</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -1101,16 +1264,19 @@
         <v>1.835</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" s="8" t="n">
         <v>19.9</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1133,16 +1299,19 @@
         <v>2.465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" s="8" t="n">
         <v>20.01</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1165,16 +1334,19 @@
         <v>3.52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24" s="8" t="n">
         <v>16.87</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1197,16 +1369,19 @@
         <v>3.435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25" s="8" t="n">
         <v>17.3</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26">
@@ -1229,16 +1404,19 @@
         <v>3.84</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="8" t="n">
         <v>15.41</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -1261,16 +1439,19 @@
         <v>3.845</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" s="8" t="n">
         <v>17.05</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1293,16 +1474,19 @@
         <v>1.935</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28" s="8" t="n">
         <v>18.9</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="29">
@@ -1325,16 +1509,19 @@
         <v>2.14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" s="8" t="n">
         <v>16.7</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30">
@@ -1357,16 +1544,19 @@
         <v>1.513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30" s="8" t="n">
         <v>16.9</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -1389,16 +1579,19 @@
         <v>3.17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31" s="8" t="n">
         <v>14.5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="32">
@@ -1421,16 +1614,19 @@
         <v>2.77</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H32" s="8" t="n">
         <v>15.5</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33">
@@ -1453,16 +1649,19 @@
         <v>3.57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H33" s="8" t="n">
         <v>14.6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34">
@@ -1485,16 +1684,19 @@
         <v>2.78</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" s="8" t="n">
         <v>18.6</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="35">
@@ -1508,6 +1710,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
+      <c r="K35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests/testthat/_output_excel_snaps/data_to_worksheet_data_table_name.xlsx
+++ b/tests/testthat/_output_excel_snaps/data_to_worksheet_data_table_name.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">test_r_numeric</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">test_r_complex</t>
   </si>
   <si>
-    <t xml:space="preserve">test_xlr_n_percent</t>
-  </si>
-  <si>
     <t xml:space="preserve">test</t>
   </si>
   <si>
@@ -56,103 +53,7 @@
     <t xml:space="preserve">1+1i</t>
   </si>
   <si>
-    <t xml:space="preserve">1 (3%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 (6%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 (9%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 (12%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 (16%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 (19%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 (22%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 (25%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 (28%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 (31%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 (34%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 (38%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 (41%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 (44%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 (47%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 (50%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 (53%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 (56%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 (59%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 (62%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 (66%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 (69%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 (72%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 (75%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 (78%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 (81%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (84%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 (88%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 (91%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 (94%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 (97%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 (100%)</t>
   </si>
 </sst>
 </file>
@@ -202,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -228,9 +129,6 @@
     <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,9 +138,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="table_test_" displayName="table_test_" ref="A2:K34" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A2:K34"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="table_test_" displayName="table_test_" ref="A2:J34" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A2:J34"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="test_r_numeric"/>
     <tableColumn id="2" name="test_r_integer"/>
     <tableColumn id="3" name="test_xlr_numeric"/>
@@ -253,7 +151,6 @@
     <tableColumn id="8" name="test_xlr_scientific"/>
     <tableColumn id="9" name="test_r_factor"/>
     <tableColumn id="10" name="test_r_complex"/>
-    <tableColumn id="11" name="test_xlr_n_percent"/>
   </tableColumns>
   <tableStyleInfo name="none" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -575,9 +472,6 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -599,19 +493,16 @@
         <v>2.62</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="8" t="n">
         <v>16.46</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -634,19 +525,16 @@
         <v>2.875</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="8" t="n">
         <v>17.02</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -669,19 +557,16 @@
         <v>2.32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="8" t="n">
         <v>18.61</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -704,19 +589,16 @@
         <v>3.215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="8" t="n">
         <v>19.44</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -739,19 +621,16 @@
         <v>3.44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="8" t="n">
         <v>17.02</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -774,19 +653,16 @@
         <v>3.46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="8" t="n">
         <v>20.22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -809,19 +685,16 @@
         <v>3.57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="8" t="n">
         <v>15.84</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -844,19 +717,16 @@
         <v>3.19</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="8" t="n">
         <v>20</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -879,19 +749,16 @@
         <v>3.15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8" t="n">
         <v>22.9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -914,19 +781,16 @@
         <v>3.44</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="8" t="n">
         <v>18.3</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -949,19 +813,16 @@
         <v>3.44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="8" t="n">
         <v>18.9</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -984,19 +845,16 @@
         <v>4.07</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="8" t="n">
         <v>17.4</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -1019,19 +877,16 @@
         <v>3.73</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="8" t="n">
         <v>17.6</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16">
@@ -1054,19 +909,16 @@
         <v>3.78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8" t="n">
         <v>18</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -1089,19 +941,16 @@
         <v>5.25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="8" t="n">
         <v>17.98</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1124,19 +973,16 @@
         <v>5.424</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="8" t="n">
         <v>17.82</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1159,19 +1005,16 @@
         <v>5.345</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="8" t="n">
         <v>17.42</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -1194,19 +1037,16 @@
         <v>2.2</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="8" t="n">
         <v>19.47</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1229,19 +1069,16 @@
         <v>1.615</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="8" t="n">
         <v>18.52</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1264,19 +1101,16 @@
         <v>1.835</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="8" t="n">
         <v>19.9</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1299,19 +1133,16 @@
         <v>2.465</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="8" t="n">
         <v>20.01</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -1334,19 +1165,16 @@
         <v>3.52</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="8" t="n">
         <v>16.87</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1369,19 +1197,16 @@
         <v>3.435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="8" t="n">
         <v>17.3</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
@@ -1404,19 +1229,16 @@
         <v>3.84</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="8" t="n">
         <v>15.41</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1439,19 +1261,16 @@
         <v>3.845</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="8" t="n">
         <v>17.05</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1474,19 +1293,16 @@
         <v>1.935</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="8" t="n">
         <v>18.9</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1509,19 +1325,16 @@
         <v>2.14</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="8" t="n">
         <v>16.7</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
@@ -1544,19 +1357,16 @@
         <v>1.513</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="8" t="n">
         <v>16.9</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1579,19 +1389,16 @@
         <v>3.17</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="8" t="n">
         <v>14.5</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1614,19 +1421,16 @@
         <v>2.77</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="8" t="n">
         <v>15.5</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33">
@@ -1649,19 +1453,16 @@
         <v>3.57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="8" t="n">
         <v>14.6</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">
@@ -1684,19 +1485,16 @@
         <v>2.78</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="8" t="n">
         <v>18.6</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1710,7 +1508,6 @@
       <c r="H35" s="8"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
-      <c r="K35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
